--- a/Plug In Digital/dodge/Guidelines Android France Dodge.xlsx
+++ b/Plug In Digital/dodge/Guidelines Android France Dodge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other Coding\WebApps\artridge\Plug In Digital\dodge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EA42A-F130-47FC-98EA-5F381AB23DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9BF101-AB52-47FF-B526-D769434F60EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A005AC79-4D67-46D0-B597-4CE960B40E81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A005AC79-4D67-46D0-B597-4CE960B40E81}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatas" sheetId="1" r:id="rId1"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EC11B-37B5-4B46-8BC2-A20FF7AB1A3B}">
   <dimension ref="B1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="C70" s="38">
-        <v>2.23</v>
+        <v>4.3</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="39"/>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B79FA-81E3-4B65-BD43-437DAC09E605}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,12 +1882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB2D7F79E4AF04468CA7D4F43BD0A675" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b135cfb4a909af014910ac183e4cc21e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0b7efa9e-1eed-4bd4-901e-1ea14744ffa0" xmlns:ns4="d82d40c8-bfdf-4ce1-b1ad-6594fbc9adc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f64e127564cd1a69fc490b2f6016ed3f" ns3:_="" ns4:_="">
     <xsd:import namespace="0b7efa9e-1eed-4bd4-901e-1ea14744ffa0"/>
@@ -2090,7 +2084,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2099,24 +2093,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9798A1B8-6B7D-4E6C-A31B-78AFC6E86C13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0b7efa9e-1eed-4bd4-901e-1ea14744ffa0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d82d40c8-bfdf-4ce1-b1ad-6594fbc9adc4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D75518-4C80-4255-8553-179FAAF710F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2135,10 +2118,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7B463CC-2C6E-4AEC-AFE4-31056C900892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9798A1B8-6B7D-4E6C-A31B-78AFC6E86C13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0b7efa9e-1eed-4bd4-901e-1ea14744ffa0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d82d40c8-bfdf-4ce1-b1ad-6594fbc9adc4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>